--- a/assets/img/template.xlsx
+++ b/assets/img/template.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simkeu\assets\img\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="9900"/>
+    <workbookView windowWidth="23445" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="118">
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>KODE</t>
+  </si>
+  <si>
     <t>URAIAN</t>
   </si>
   <si>
@@ -30,6 +31,9 @@
     <t>SATUAN</t>
   </si>
   <si>
+    <t>HARGA SATUAN</t>
+  </si>
+  <si>
     <t>JUMLAH UANG</t>
   </si>
   <si>
@@ -42,6 +46,9 @@
     <t>SSN</t>
   </si>
   <si>
+    <t>BLOK GRAND</t>
+  </si>
+  <si>
     <t>HIBAH BOPDA</t>
   </si>
   <si>
@@ -51,6 +58,9 @@
     <t>JUMLAH TOTAL</t>
   </si>
   <si>
+    <t>KETERANGAN BELANJA</t>
+  </si>
+  <si>
     <t>Alat Tulis Sekolah</t>
   </si>
   <si>
@@ -102,6 +112,9 @@
     <t>Biaya Bahan dan Alat Habis Pakai</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Kertas HVS</t>
   </si>
   <si>
@@ -355,34 +368,20 @@
   </si>
   <si>
     <t xml:space="preserve">Pengadaan buku </t>
-  </si>
-  <si>
-    <t>HARGA SATUAN</t>
-  </si>
-  <si>
-    <t>BLOK GRAND</t>
-  </si>
-  <si>
-    <t>KETERANGAN BELANJA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>KODE</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,12 +404,156 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +562,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -475,10 +804,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -493,29 +1064,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,80 +1388,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="70.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="9" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
+    <col min="7" max="9" width="18.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="18.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="10.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="18.2857142857143" customWidth="1"/>
+    <col min="15" max="15" width="21.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -857,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -880,13 +1495,13 @@
         <v>1.2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6">
         <v>60000</v>
@@ -909,7 +1524,7 @@
         <v>4800000</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -920,13 +1535,13 @@
         <v>1.3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6">
         <v>24000</v>
@@ -949,7 +1564,7 @@
         <v>720000</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -960,13 +1575,13 @@
         <v>1.4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>54</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6">
         <v>7500</v>
@@ -987,7 +1602,7 @@
         <v>405000</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -998,13 +1613,13 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6">
         <v>155000</v>
@@ -1024,7 +1639,7 @@
         <v>155000</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1035,13 +1650,13 @@
         <v>1.6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6">
         <v>80000</v>
@@ -1061,7 +1676,7 @@
         <v>80000</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1072,13 +1687,13 @@
         <v>1.7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
         <v>15000</v>
@@ -1098,7 +1713,7 @@
         <v>15000</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1109,13 +1724,13 @@
         <v>1.8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6">
         <v>15000</v>
@@ -1136,7 +1751,7 @@
         <v>375000</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1147,13 +1762,13 @@
         <v>1.9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6">
         <v>40000</v>
@@ -1173,7 +1788,7 @@
         <v>200000</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1184,13 +1799,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6">
         <v>3500</v>
@@ -1210,7 +1825,7 @@
         <v>17500</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1221,13 +1836,13 @@
         <v>2.1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4">
         <v>150</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" s="6">
         <v>2500</v>
@@ -1248,7 +1863,7 @@
         <v>375000</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1256,16 +1871,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4">
         <v>150</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F13" s="6">
         <v>5000</v>
@@ -1288,7 +1903,7 @@
         <v>750000</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1296,16 +1911,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>413</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6">
         <v>5000</v>
@@ -1326,7 +1941,7 @@
         <v>2065000</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1337,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -1351,7 +1966,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1362,13 +1977,13 @@
         <v>2.1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4">
         <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6">
         <v>35500</v>
@@ -1389,7 +2004,7 @@
         <v>1775000</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1397,16 +2012,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4">
         <v>5000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F17" s="6">
         <v>200</v>
@@ -1429,7 +2044,7 @@
         <v>1000000</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1437,16 +2052,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6">
         <v>40000</v>
@@ -1466,7 +2081,7 @@
         <v>400000</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1477,13 +2092,13 @@
         <v>2.4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4">
         <v>420</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6">
         <v>4000</v>
@@ -1506,7 +2121,7 @@
         <v>1680000</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1517,13 +2132,13 @@
         <v>2.5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4">
         <v>192</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" s="6">
         <v>17000</v>
@@ -1546,7 +2161,7 @@
         <v>3264000</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1557,13 +2172,13 @@
         <v>2.6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4">
         <v>120</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F21" s="6">
         <v>6000</v>
@@ -1584,7 +2199,7 @@
         <v>720000</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1595,13 +2210,13 @@
         <v>2.6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4">
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6">
         <v>3000</v>
@@ -1622,7 +2237,7 @@
         <v>360000</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1633,13 +2248,13 @@
         <v>2.7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4">
         <v>24</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6">
         <v>30000</v>
@@ -1660,7 +2275,7 @@
         <v>720000</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1671,13 +2286,13 @@
         <v>2.7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" s="4">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6">
         <v>30000</v>
@@ -1698,7 +2313,7 @@
         <v>1080000</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1709,13 +2324,13 @@
         <v>2.8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F25" s="6">
         <v>300000</v>
@@ -1738,7 +2353,7 @@
         <v>3600000</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1749,13 +2364,13 @@
         <v>2.9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4">
         <v>24</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6">
         <v>60000</v>
@@ -1776,7 +2391,7 @@
         <v>1440000</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1787,13 +2402,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4">
         <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F27" s="10">
         <v>40000</v>
@@ -1813,7 +2428,7 @@
         <v>1440000</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1824,13 +2439,13 @@
         <v>3.1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4">
         <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F28" s="10">
         <v>250000</v>
@@ -1851,7 +2466,7 @@
         <v>2000000</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1862,13 +2477,13 @@
         <v>3.2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4">
         <v>24</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F29" s="10">
         <v>1500</v>
@@ -1889,7 +2504,7 @@
         <v>36000</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1900,13 +2515,13 @@
         <v>3.3</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F30" s="10">
         <v>7000</v>
@@ -1927,7 +2542,7 @@
         <v>70000</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1938,13 +2553,13 @@
         <v>3.4</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4">
         <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F31" s="10">
         <v>15000</v>
@@ -1965,7 +2580,7 @@
         <v>90000</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1976,13 +2591,13 @@
         <v>3.5</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D32" s="4">
         <v>48</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F32" s="10">
         <v>2500</v>
@@ -2003,7 +2618,7 @@
         <v>120000</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2014,13 +2629,13 @@
         <v>3.6</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F33" s="10">
         <v>250000</v>
@@ -2041,7 +2656,7 @@
         <v>500000</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2052,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2066,7 +2681,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="6"/>
       <c r="O34" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2077,13 +2692,13 @@
         <v>3.1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F35" s="6">
         <v>20000000</v>
@@ -2105,7 +2720,7 @@
         <v>20000000</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2116,13 +2731,13 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F36" s="6">
         <v>15000000</v>
@@ -2144,7 +2759,7 @@
         <v>15000000</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2155,13 +2770,13 @@
         <v>3.4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F37" s="6">
         <v>10000000</v>
@@ -2183,7 +2798,7 @@
         <v>10000000</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2194,13 +2809,13 @@
         <v>3.5</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D38" s="4">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F38" s="6">
         <v>10000000</v>
@@ -2222,7 +2837,7 @@
         <v>10000000</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2233,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2247,7 +2862,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="6"/>
       <c r="O39" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2255,16 +2870,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F40" s="12">
         <v>8500000</v>
@@ -2286,7 +2901,7 @@
         <v>8500000</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2297,13 +2912,13 @@
         <v>4.2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F41" s="12">
         <v>5000000</v>
@@ -2325,7 +2940,7 @@
         <v>5000000</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2336,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2350,7 +2965,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="12"/>
       <c r="O42" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2358,16 +2973,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F43" s="12">
         <v>4000000</v>
@@ -2387,7 +3002,7 @@
         <v>4000000</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2398,13 +3013,13 @@
         <v>5.2</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F44" s="12">
         <v>8000000</v>
@@ -2426,7 +3041,7 @@
         <v>8000000</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2437,13 +3052,13 @@
         <v>5.3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F45" s="12">
         <v>3000000</v>
@@ -2465,7 +3080,7 @@
         <v>3000000</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2476,13 +3091,13 @@
         <v>5.4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F46" s="12">
         <v>20000000</v>
@@ -2504,7 +3119,7 @@
         <v>20000000</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2515,7 +3130,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2529,7 +3144,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
       <c r="O47" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2540,13 +3155,13 @@
         <v>6.1</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F48" s="10">
         <v>30000000</v>
@@ -2566,7 +3181,7 @@
         <v>30000000</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2577,13 +3192,13 @@
         <v>6.2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F49" s="6">
         <v>25000000</v>
@@ -2605,7 +3220,7 @@
         <v>25000000</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2616,13 +3231,13 @@
         <v>6.3</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F50" s="6">
         <v>4000000</v>
@@ -2644,7 +3259,7 @@
         <v>4000000</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2655,13 +3270,13 @@
         <v>6.4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F51" s="6">
         <v>7000000</v>
@@ -2683,7 +3298,7 @@
         <v>7000000</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2694,13 +3309,13 @@
         <v>6.5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F52" s="6">
         <v>18150000</v>
@@ -2722,7 +3337,7 @@
         <v>18150000</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2733,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
@@ -2747,7 +3362,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2758,7 +3373,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2772,7 +3387,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="6"/>
       <c r="O54" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2783,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2797,7 +3412,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
       <c r="O55" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -2808,13 +3423,13 @@
         <v>9.1</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F56" s="12">
         <v>2000000</v>
@@ -2836,7 +3451,7 @@
         <v>2000000</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2844,16 +3459,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F57" s="12">
         <v>1000000</v>
@@ -2873,7 +3488,7 @@
         <v>1000000</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2884,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2898,7 +3513,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -2909,13 +3524,13 @@
         <v>10.1</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D59" s="4">
         <v>12</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F59" s="6">
         <v>15000000</v>
@@ -2937,7 +3552,7 @@
         <v>15000000</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -2945,16 +3560,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D60" s="4">
         <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F60" s="6">
         <v>7000000</v>
@@ -2976,7 +3591,7 @@
         <v>7000000</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -2987,13 +3602,13 @@
         <v>10.3</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D61" s="4">
         <v>12</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F61" s="6">
         <v>1680000</v>
@@ -3015,7 +3630,7 @@
         <v>1680000</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3026,13 +3641,13 @@
         <v>10.4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D62" s="4">
         <v>12</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F62" s="6">
         <v>4800000</v>
@@ -3052,7 +3667,7 @@
         <v>4800000</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3063,13 +3678,13 @@
         <v>10.5</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D63" s="4">
         <v>12</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F63" s="6">
         <v>4500000</v>
@@ -3091,7 +3706,7 @@
         <v>4500000</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3102,13 +3717,13 @@
         <v>10.6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D64" s="4">
         <v>12</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F64" s="6">
         <v>6000000</v>
@@ -3130,7 +3745,7 @@
         <v>6000000</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3141,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
@@ -3155,7 +3770,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3166,13 +3781,13 @@
         <v>11.1</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F66" s="6">
         <v>21476000</v>
@@ -3192,7 +3807,7 @@
         <v>21476000</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3203,13 +3818,13 @@
         <v>11.2</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F67" s="6">
         <v>61446478</v>
@@ -3233,7 +3848,7 @@
         <v>61446478</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3244,13 +3859,13 @@
         <v>11.3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F68" s="6">
         <v>4560000</v>
@@ -3273,7 +3888,7 @@
         <v>4560000</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3284,13 +3899,13 @@
         <v>11.4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F69" s="6">
         <v>7828000</v>
@@ -3313,7 +3928,7 @@
         <v>7828000</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3324,13 +3939,13 @@
         <v>11.5</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D70" s="4">
         <v>8</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F70" s="6">
         <v>800000</v>
@@ -3350,7 +3965,7 @@
         <v>800000</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3361,13 +3976,13 @@
         <v>11.6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F71" s="6">
         <v>15200000</v>
@@ -3389,7 +4004,7 @@
         <v>15200000</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3400,13 +4015,13 @@
         <v>11.7</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F72" s="6">
         <v>30000000</v>
@@ -3426,7 +4041,7 @@
         <v>30000000</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3437,13 +4052,13 @@
         <v>11.8</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F73" s="6">
         <v>6904000</v>
@@ -3465,7 +4080,7 @@
         <v>6904000</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3476,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3490,7 +4105,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3501,13 +4116,13 @@
         <v>12.1</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F75" s="6">
         <v>2831022</v>
@@ -3527,7 +4142,7 @@
         <v>2831022</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3538,13 +4153,13 @@
         <v>12.2</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D76" s="4">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F76" s="6">
         <v>5500000</v>
@@ -3566,7 +4181,7 @@
         <v>5500000</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3577,13 +4192,13 @@
         <v>12.3</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D77" s="4">
         <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F77" s="6">
         <v>6900000</v>
@@ -3605,7 +4220,7 @@
         <v>6900000</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -3616,7 +4231,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3630,7 +4245,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -3641,13 +4256,13 @@
         <v>13.1</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D79" s="4">
         <v>12</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F79" s="6">
         <v>400000</v>
@@ -3668,7 +4283,7 @@
         <v>4800000</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3679,13 +4294,13 @@
         <v>13.2</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D80" s="4">
         <v>12</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F80" s="6">
         <v>200000</v>
@@ -3705,7 +4320,7 @@
         <v>2400000</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3716,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3730,7 +4345,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -3741,13 +4356,13 @@
         <v>14.1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D82" s="4">
         <v>20</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F82" s="6">
         <v>17518000</v>
@@ -3770,7 +4385,7 @@
         <v>210216000</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -3781,13 +4396,13 @@
         <v>14.2</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D83" s="4">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F83" s="6">
         <v>2100000</v>
@@ -3807,7 +4422,7 @@
         <v>25200000</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -3818,13 +4433,13 @@
         <v>14.3</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F84" s="6">
         <v>8450000</v>
@@ -3844,11 +4459,12 @@
         <v>8450000</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>